--- a/docs/HubSynopsis.xlsx
+++ b/docs/HubSynopsis.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hub Blueprint" sheetId="1" r:id="rId1"/>
+    <sheet name="Hub Synopsis" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Blueprint'!$C$1:$C$579</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hub Synopsis'!$C$1:$C$579</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
